--- a/biology/Médecine/Virginie_Deloffre/Virginie_Deloffre.xlsx
+++ b/biology/Médecine/Virginie_Deloffre/Virginie_Deloffre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Virginie Deloffre est une médecin et romancière française, lauréate du prix des libraires 2012 pour son premier roman Léna.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Virginie Deloffre est médecin à Paris dans un hôpital[1] et a mis sept ans à écrire Léna, premier roman qui « nous entraîne dans le Grand Nord sibérien à la rencontre de l'âme russe aux temps troublés de la perestroïka »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Virginie Deloffre est médecin à Paris dans un hôpital et a mis sept ans à écrire Léna, premier roman qui « nous entraîne dans le Grand Nord sibérien à la rencontre de l'âme russe aux temps troublés de la perestroïka ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2012 : Prix Première[3]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2012 : Prix Première</t>
         </is>
       </c>
     </row>
@@ -572,7 +588,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2011 : Léna, éditions Albin Michel,  (ISBN 9782226229700) ; rééd. Livre de Poche, 2013 Existe en livre-audio, lu par Marie-Claude Moreau, Pollen diffusion, 2013.</t>
         </is>
